--- a/biology/Zoologie/Fountainea_sosippus/Fountainea_sosippus.xlsx
+++ b/biology/Zoologie/Fountainea_sosippus/Fountainea_sosippus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fountainea sosippus  est un insecte lépidoptère de la famille des Nymphalidae et de la sous-famille des Charaxinae et du genre Fountainea.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fountainea sosippus a été décrit par Carl Heinrich Hopffer en 1874 sous le nom initial de Paphia sosippus.
-Synonymes : Paphia rutilans Butler, 1875; Anaea strymon Weymer, 1890; Anaea sosippus[1].
+Synonymes : Paphia rutilans Butler, 1875; Anaea strymon Weymer, 1890; Anaea sosippus.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fountainea sosippus est un papillon d'une envergure de 50 mm à 55 mm, aux ailes antérieures à bord costal bossu, apex anguleux et bord externe très légèrement concave[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fountainea sosippus est un papillon d'une envergure de 50 mm à 55 mm, aux ailes antérieures à bord costal bossu, apex anguleux et bord externe très légèrement concave.
 Le dessus est de couleur marron cuivré avec aux ailes antérieure une bande marron de la moitié du bord costal à la moitié du bord externe qui rejoint une bande marron qui borde le bord externe et englobe l'apex.
 Le revers est beige marbré et mime une feuille morte.
 </t>
@@ -573,12 +589,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fountainea sosippus est présent en Équateur et au Pérou,.
+</t>
         </is>
       </c>
     </row>
@@ -608,12 +627,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fountainea sosippus est présent en Équateur et au Pérou[1],[2].
-Biotope
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Fountainea sosippus, sur Wikimedia CommonsFountainea sosippus, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fountainea_sosippus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fountainea_sosippus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
